--- a/Template_Import/ImportCity_v1.xlsx
+++ b/Template_Import/ImportCity_v1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\v_2\SystemManagerCakeok_v2\Template_Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\v_3\ManagerMusic\Template_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2721A178-429E-423E-90E6-5260DBDD7523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F08C7B-9DCB-4DA7-89D8-71830911079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6604CDE-0402-4BAB-A592-80FF8367BF28}"/>
+    <workbookView xWindow="3975" yWindow="2445" windowWidth="23085" windowHeight="11295" xr2:uid="{C6604CDE-0402-4BAB-A592-80FF8367BF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -189,6 +189,141 @@
   </si>
   <si>
     <t>Danh Sách Tỉnh/Tp Việt Nam</t>
+  </si>
+  <si>
+    <t>Ký Hiệu</t>
+  </si>
+  <si>
+    <t>LĐ</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BĐ</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>ĐL</t>
+  </si>
+  <si>
+    <t>ĐT</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>NĐ</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>QN</t>
+  </si>
+  <si>
+    <t>BTh</t>
+  </si>
+  <si>
+    <t>Hna</t>
+  </si>
+  <si>
+    <t>KhH</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>TQ</t>
+  </si>
+  <si>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>YB</t>
+  </si>
+  <si>
+    <t>Mã Vị Trí</t>
   </si>
 </sst>
 </file>
@@ -259,11 +394,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,6 +416,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,432 +734,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0370F6-5ED0-47C3-AE80-5EF87A57CB69}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="C3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="10">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="C4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="10">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="C5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="C6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="C7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="C8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="10">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="C9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="C10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="C11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="C12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="C13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="C15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="C16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="C17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="C18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="C19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="C20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="C21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="C22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="C23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="C24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="C26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="C27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="C28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="C29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="C30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="C31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="C32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="C33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="C34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="C35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="C36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="C37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="C38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="C39" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="C40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="C41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="C42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="C43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="C44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="C45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="C46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="C47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="C48" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="C49" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="C50" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="C51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Template_Import/ImportCity_v1.xlsx
+++ b/Template_Import/ImportCity_v1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\v_3\ManagerMusic\Template_Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development_Project\Dev_ManagerMusic\Source\ManagerMusic\Template_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F08C7B-9DCB-4DA7-89D8-71830911079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2445" windowWidth="23085" windowHeight="11295" xr2:uid="{C6604CDE-0402-4BAB-A592-80FF8367BF28}"/>
+    <workbookView xWindow="3972" yWindow="2448" windowWidth="23088" windowHeight="11292"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -329,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,10 +415,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,28 +732,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0370F6-5ED0-47C3-AE80-5EF87A57CB69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -775,10 +774,10 @@
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>263</v>
       </c>
     </row>
@@ -789,10 +788,10 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>275</v>
       </c>
     </row>
@@ -803,10 +802,10 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>276</v>
       </c>
     </row>
@@ -817,10 +816,10 @@
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>256</v>
       </c>
     </row>
@@ -831,10 +830,10 @@
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>271</v>
       </c>
     </row>
@@ -845,10 +844,10 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>252</v>
       </c>
     </row>
@@ -859,10 +858,10 @@
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>290</v>
       </c>
     </row>
@@ -873,10 +872,10 @@
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>206</v>
       </c>
     </row>
@@ -887,10 +886,12 @@
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9">
+        <v>262</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -899,10 +900,12 @@
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="9">
+        <v>277</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -911,10 +914,12 @@
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9">
+        <v>269</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -923,10 +928,12 @@
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9">
+        <v>219</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -935,10 +942,12 @@
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9">
+        <v>226</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -947,10 +956,12 @@
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9">
+        <v>239</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -959,10 +970,12 @@
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="9">
+        <v>220</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -971,10 +984,12 @@
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9">
+        <v>225</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -983,10 +998,12 @@
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9">
+        <v>293</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -995,10 +1012,12 @@
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9">
+        <v>218</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -1007,10 +1026,12 @@
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="9">
+        <v>221</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -1019,10 +1040,12 @@
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9">
+        <v>258</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
@@ -1031,10 +1054,12 @@
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="9">
+        <v>297</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1043,10 +1068,12 @@
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="9">
+        <v>260</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
@@ -1055,10 +1082,12 @@
       <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="9">
+        <v>213</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
@@ -1067,10 +1096,12 @@
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="9">
+        <v>205</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
@@ -1079,10 +1110,12 @@
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9">
+        <v>214</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
@@ -1091,10 +1124,12 @@
       <c r="B28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="9">
+        <v>263</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -1103,10 +1138,12 @@
       <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="9">
+        <v>272</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
@@ -1115,10 +1152,12 @@
       <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9">
+        <v>228</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -1127,10 +1166,12 @@
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9">
+        <v>238</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
@@ -1139,10 +1180,12 @@
       <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="9">
+        <v>229</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
@@ -1151,10 +1194,12 @@
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="9">
+        <v>259</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
@@ -1163,10 +1208,12 @@
       <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="9">
+        <v>210</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
@@ -1175,10 +1222,12 @@
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="9">
+        <v>257</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
@@ -1187,10 +1236,12 @@
       <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="9">
+        <v>232</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -1199,10 +1250,12 @@
       <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="9">
+        <v>235</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
@@ -1211,10 +1264,12 @@
       <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="9">
+        <v>255</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
@@ -1223,10 +1278,12 @@
       <c r="B39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="9">
+        <v>203</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
@@ -1235,10 +1292,12 @@
       <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="9">
+        <v>233</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
@@ -1247,10 +1306,12 @@
       <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="9">
+        <v>299</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
@@ -1259,10 +1320,12 @@
       <c r="B42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="9">
+        <v>212</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
@@ -1271,10 +1334,12 @@
       <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="9">
+        <v>276</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
@@ -1283,10 +1348,12 @@
       <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="9">
+        <v>208</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
@@ -1295,10 +1362,12 @@
       <c r="B45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="9">
+        <v>237</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
@@ -1307,10 +1376,12 @@
       <c r="B46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="9">
+        <v>273</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
@@ -1319,10 +1390,12 @@
       <c r="B47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="9">
+        <v>294</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
@@ -1331,10 +1404,12 @@
       <c r="B48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="9">
+        <v>207</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
@@ -1343,10 +1418,12 @@
       <c r="B49" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="9">
+        <v>270</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
@@ -1355,10 +1432,12 @@
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="9">
+        <v>211</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
@@ -1367,10 +1446,12 @@
       <c r="B51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="9">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Template_Import/ImportCity_v1.xlsx
+++ b/Template_Import/ImportCity_v1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development_Project\Dev_ManagerMusic\Source\ManagerMusic\Template_Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\v_3\ManagerMusic\Template_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91164117-5235-4FCF-9E9C-E093BC71954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="2448" windowWidth="23088" windowHeight="11292"/>
+    <workbookView xWindow="12705" yWindow="0" windowWidth="11955" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>STT</t>
   </si>
@@ -323,12 +324,36 @@
   </si>
   <si>
     <t>Mã Vị Trí</t>
+  </si>
+  <si>
+    <t>Tỉnh Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>TTH</t>
+  </si>
+  <si>
+    <t>Tỉnh Đồng Nai</t>
+  </si>
+  <si>
+    <t>ĐN</t>
+  </si>
+  <si>
+    <t>Tỉnh Bà Rịa-Vũng Tàu</t>
+  </si>
+  <si>
+    <t>BR-VT</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Thành Phố Cần Thơ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,28 +757,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -772,13 +797,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="9">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,13 +811,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,13 +825,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,13 +839,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="9">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,13 +853,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D7" s="9">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,13 +867,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9">
-        <v>252</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,601 +881,643 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="9">
-        <v>290</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9">
-        <v>206</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="9">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="9">
-        <v>269</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D14" s="9">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D15" s="9">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="9">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="9">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="9">
-        <v>225</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D19" s="9">
-        <v>293</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="9">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D21" s="9">
-        <v>221</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D22" s="9">
-        <v>258</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="9">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="9">
-        <v>260</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="9">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="9">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D27" s="9">
-        <v>214</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="C28" s="9" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D28" s="9">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="C29" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="9">
-        <v>272</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="C30" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="9">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="9">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C32" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="9">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C33" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="9">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="C34" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="9">
-        <v>210</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C35" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35" s="9">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="C36" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="9">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="9">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="9">
-        <v>255</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="C39" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D39" s="9">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="C40" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40" s="9">
-        <v>233</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="C41" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" s="9">
-        <v>299</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="C42" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" s="9">
-        <v>212</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="9">
-        <v>276</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="C44" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" s="9">
-        <v>208</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="C45" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D45" s="9">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="C46" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D46" s="9">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="C47" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" s="9">
-        <v>294</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D48" s="9">
-        <v>207</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="C49" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D49" s="9">
-        <v>270</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="C50" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D50" s="9">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="9">
-        <v>216</v>
+      <c r="B52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="9">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="9">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
